--- a/WindowsFormsApplication1/CalculatedHorsePoints_template.xlsx
+++ b/WindowsFormsApplication1/CalculatedHorsePoints_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smnm2018\resultat\publishHorseResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnusl\source\repos\Vaulting\WindowsFormsApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CEE5D5-F509-4DC1-9DFB-6656407F7004}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{40B485BB-2863-4DB6-B231-06A73006AEDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22035" windowHeight="10290" tabRatio="207" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,77 +16,34 @@
     <sheet name="HorsePoints" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HorsePoints!$A$1:$S$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HorsePoints!$A$1:$G$3</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Häst</t>
   </si>
   <si>
-    <t>Mean SM (Ind + Team)</t>
-  </si>
-  <si>
-    <t>Max NM (Ind+Team)</t>
-  </si>
-  <si>
-    <t>Max SM/NM (Ind+Team)</t>
-  </si>
-  <si>
-    <t>Mean SM/NM (Ind + Team)</t>
-  </si>
-  <si>
-    <t>Max SM/NM (Ind)</t>
-  </si>
-  <si>
-    <t>Mean SM/NM (Team)</t>
-  </si>
-  <si>
-    <t>Max SM (Ind)</t>
-  </si>
-  <si>
-    <t>Mean SM (Team)</t>
-  </si>
-  <si>
-    <t>Max NM (Ind)</t>
-  </si>
-  <si>
-    <t>Max NM (Team)</t>
-  </si>
-  <si>
-    <t>Mean SM/NM (Ind)</t>
-  </si>
-  <si>
-    <t>Max SM/NM (Team)</t>
-  </si>
-  <si>
-    <t>Max SM (Ind+Team)</t>
-  </si>
-  <si>
-    <t>Mean SM (Ind)</t>
-  </si>
-  <si>
-    <t>Max SM (Team)</t>
-  </si>
-  <si>
-    <t>Mean NM (Ind + Team)</t>
-  </si>
-  <si>
-    <t>Mean NM (Ind)</t>
-  </si>
-  <si>
-    <t>Mean NM (Team)</t>
+    <t>Max (Ind+Team)</t>
+  </si>
+  <si>
+    <t>Mean  (Ind + Team)</t>
+  </si>
+  <si>
+    <t>Max  (Ind)</t>
+  </si>
+  <si>
+    <t>Mean  (Ind)</t>
+  </si>
+  <si>
+    <t>Max  (Team)</t>
+  </si>
+  <si>
+    <t>Mean (Team)</t>
   </si>
 </sst>
 </file>
@@ -107,7 +64,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,18 +74,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,24 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -189,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,103 +418,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S3" xr:uid="{3F5DCFF8-A8A3-4395-AD5D-3F9102840994}"/>
-  <sortState ref="A2:O7">
+  <autoFilter ref="A1:G3" xr:uid="{3F5DCFF8-A8A3-4395-AD5D-3F9102840994}"/>
+  <sortState ref="A2:G7">
     <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
